--- a/BotTrading/src/Resultado/ResultadoAnalise.xlsx
+++ b/BotTrading/src/Resultado/ResultadoAnalise.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Not identified</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
